--- a/herge.xlsx
+++ b/herge.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>métiers</t>
   </si>
   <si>
     <t>noms</t>
-  </si>
-  <si>
-    <t>numéro</t>
   </si>
   <si>
     <t>journaliste</t>
@@ -392,43 +389,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
